--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_020.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_020.xlsx
@@ -31,336 +31,336 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295024EA1.24) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell cooling</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295019AK2.09) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Primary containment and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295023AK2.06) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation (Mark III)</t>
-  </si>
-  <si>
-    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
-  </si>
-  <si>
-    <t>(295027EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Hydrogen recombiners</t>
-  </si>
-  <si>
-    <t>(295038EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(700000AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Under-excitation</t>
-  </si>
-  <si>
-    <t>(295001AK2.10) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Power range monitoring system</t>
-  </si>
-  <si>
-    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295025EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295004AK2.04) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295005AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Turbine bypass valve operation </t>
-  </si>
-  <si>
-    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295002AK2.10) Knowledge of the relationship between the (APE 2) LOSS OF MAIN CONDENSER VACUUM and the following systems or components: (CFR: 41.7 / 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(295017AA2.03) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295009AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295022AA1.02) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295020AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.8 to 41.10) Loss of reactor building HVAC</t>
-  </si>
-  <si>
-    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
-  </si>
-  <si>
-    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
-  </si>
-  <si>
-    <t>(261000K4.01) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(209001A4.15) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation reset</t>
-  </si>
-  <si>
-    <t>(205000K3.05) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup</t>
-  </si>
-  <si>
-    <t>(215005K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215004K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(239002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
-  </si>
-  <si>
-    <t>(215003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Control rod block status</t>
-  </si>
-  <si>
-    <t>(203000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Loop selection</t>
-  </si>
-  <si>
-    <t>(217000K2.05) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Water leg pump</t>
-  </si>
-  <si>
-    <t>(212000A2.15) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Load rejection</t>
-  </si>
-  <si>
-    <t>(510000K4.07) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Discharge strainer backwashing</t>
-  </si>
-  <si>
-    <t>(209002A4.04) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Minimum flow valve</t>
-  </si>
-  <si>
-    <t>(223002K3.30) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Leak detection system</t>
-  </si>
-  <si>
-    <t>(218000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291002K1.04) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Modes of failure</t>
-  </si>
-  <si>
-    <t>(211000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
-  </si>
-  <si>
-    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
-  </si>
-  <si>
-    <t>(264000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Gas generator temperature</t>
-  </si>
-  <si>
-    <t>(262002K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) APRM/LPRM/OPRM system</t>
-  </si>
-  <si>
-    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
-  </si>
-  <si>
-    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
-  </si>
-  <si>
-    <t>(261000K4.03) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Moisture removal</t>
-  </si>
-  <si>
-    <t>(201005K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.5 to 41.7 / 45.3 / 45.5) Transition zone</t>
-  </si>
-  <si>
-    <t>(268000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(241000A3.15) Ability to monitor automatic operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.7 / 45.7) Recirculation pump trip</t>
-  </si>
-  <si>
-    <t>(290001K2.02) (SF5 SC) SECONDARY CONTAINMENT Knowledge of electrical power supplies to the following: (CFR: 41.7) HVAC isolation dampers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(290003A2.03) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(230000K4.04) Knowledge of (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of piping overpressurization</t>
-  </si>
-  <si>
-    <t>(259001A4.06) Ability to manually operate and/or monitor the (SF2 FWS) FEEDWATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Feedwater inlet temperature</t>
-  </si>
-  <si>
-    <t>(290002K3.24) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Source range monitor system</t>
-  </si>
-  <si>
-    <t>(286000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FPS) FIRE PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main generator hydrogen system</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(256000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.7 / 45.7) Heater drains and vent system</t>
-  </si>
-  <si>
-    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295019AK2.16) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Reactor core isolation cooling</t>
+  </si>
+  <si>
+    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295030EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Suppression pool makeup system(s) operation</t>
+  </si>
+  <si>
+    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295025EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(600000AK2.05) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Fire alarm panels</t>
+  </si>
+  <si>
+    <t>(295003AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Containment isolation</t>
+  </si>
+  <si>
+    <t>(700000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operations status of safety-related (vital) buses</t>
+  </si>
+  <si>
+    <t>(295026EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCI</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295037EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Hot shutdown boron weight</t>
+  </si>
+  <si>
+    <t>(295004AK2.02) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Batteries</t>
+  </si>
+  <si>
+    <t>(295001AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295038EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Feedwater leakage control</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
+  </si>
+  <si>
+    <t>(295014AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295020AA2.04) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295012AA1.02) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell cooling system</t>
+  </si>
+  <si>
+    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295013AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Surveillance testing</t>
+  </si>
+  <si>
+    <t>(295010AK2.07) Knowledge of the relationship between the (APE 10) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water</t>
+  </si>
+  <si>
+    <t>(400000K4.02) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Containment isolation</t>
+  </si>
+  <si>
+    <t>(223002A2.01) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) AC electrical distribution failures</t>
+  </si>
+  <si>
+    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
+  </si>
+  <si>
+    <t>(218000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(263000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
+  </si>
+  <si>
+    <t>(211000K2.01) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SLCS pumps</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(205000A3.01) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(264000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(215004A4.04) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS drive control switches</t>
+  </si>
+  <si>
+    <t>(259002K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Turbine speed control mechanisms: TDRFP</t>
+  </si>
+  <si>
+    <t>(262001K4.03) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic bus transfer</t>
+  </si>
+  <si>
+    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
+  </si>
+  <si>
+    <t>(203000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) System pressure</t>
+  </si>
+  <si>
+    <t>(215005K3.09) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(261000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291002K1.22) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Failure modes of fission chambers, ion chambers, and proportional counters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215003A3.01) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Meters and recorders </t>
+  </si>
+  <si>
+    <t>(217000K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Remote shutdown system</t>
+  </si>
+  <si>
+    <t>(209002A4.02) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Suction valves</t>
+  </si>
+  <si>
+    <t>(239002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Acoustical monitoring</t>
+  </si>
+  <si>
+    <t>(400000K4.07) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System response to LOCA signal</t>
+  </si>
+  <si>
+    <t>(223002A2.12) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Plant pneumatic system failures</t>
+  </si>
+  <si>
+    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
+  </si>
+  <si>
+    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(215001A4.03) Ability to manually operate and/or monitor the (SF7 TIP) TRAVERSING IN CORE PROBE in the control room: (CFR: 41.7 / 45.5 to 45.8) Isolation valves (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(290001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.5 / 45.3) Building delta pressure control</t>
+  </si>
+  <si>
+    <t>(510001K4.04) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine load reduction</t>
+  </si>
+  <si>
+    <t>(239001A2.10) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Closure of one or more MSIVs at power</t>
+  </si>
+  <si>
+    <t>(201005A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.5 / 45.5) Reactor power</t>
+  </si>
+  <si>
+    <t>(230000K3.06) Knowledge of the effect that a loss or malfunction of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment pressure</t>
+  </si>
+  <si>
+    <t>(290003K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.7 / 45.7) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(226001K2.02) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239003A3.01) Ability to monitor automatic operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.7 / 45.7) System logic initiation</t>
+  </si>
+  <si>
+    <t>(259001K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RHR system</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
+  </si>
+  <si>
+    <t>(292003K1.07) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain prompt critical, prompt jump, and prompt drop</t>
+  </si>
+  <si>
+    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
+  </si>
+  <si>
+    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
+  </si>
+  <si>
+    <t>(293009K1.39) CORE THERMAL LIMITS (CFR: 41.14) For the following plant operating or accident condition, identify which of the three core thermal limits are most limiting: Full power operation</t>
+  </si>
+  <si>
+    <t>(295005AA2.04) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
+  </si>
+  <si>
+    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(510000A2.01) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/motor failure</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(234000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool level</t>
+  </si>
+  <si>
+    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(292006K1.08) FISSION PRODUCT POISONS (CFR: 41.1) Describe the effects that xenon concentration has on flux shape and control rod patterns</t>
-  </si>
-  <si>
-    <t>(292008K1.09) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) List parameters that should be monitored and controlled during the intermediate phase of startup (from criticality to the point of adding heat (POAH))</t>
-  </si>
-  <si>
-    <t>(292005K1.11) CONTROL RODS (CFR: 41.1) Define deep rods and shallow rods</t>
-  </si>
-  <si>
-    <t>(293008K1.31) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Explain the necessity of core orificing</t>
-  </si>
-  <si>
-    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
-  </si>
-  <si>
-    <t>(293009K1.07) CORE THERMAL LIMITS (CFR: 41.14) (LHGR) Explain the basis of the limiting condition of LHGR</t>
-  </si>
-  <si>
-    <t>(295024EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber air-space temperature</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
-  </si>
-  <si>
-    <t>(295036EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Cause of the high water level</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010AA2.02) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(209001A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low suppression pool level </t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(215005A2.12) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Operation of the OPRM-enabled region of the power to flow map</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(215004A2.02) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SRMS inoperable condition</t>
-  </si>
-  <si>
-    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(239001A2.11) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
-  </si>
-  <si>
-    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
   </si>
   <si>
     <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295024</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>295023</t>
   </si>
   <si>
     <t>295037</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295027</t>
   </si>
   <si>
     <t>295038</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295004</t>
+    <t>295021</t>
   </si>
   <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295022</t>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>295007</t>
   </si>
   <si>
     <t>295035</t>
   </si>
   <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>288000</t>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>202002</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1973,7 +1973,7 @@
         <v>3.4</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
         <v>109</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D79" t="s">
         <v>109</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D81" t="s">
         <v>109</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D83" t="s">
         <v>109</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D84" t="s">
         <v>109</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D87" t="s">
         <v>109</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
         <v>109</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
